--- a/data/panelapp/au/Hereditary Neuropathy_CMT_IsolatedAndComplex.xlsx
+++ b/data/panelapp/au/Hereditary Neuropathy_CMT_IsolatedAndComplex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421880</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421891</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421894</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421897</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421900</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421903</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421906</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421908</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421911</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421914</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421916</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421919</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421921</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421924</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421926</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421929</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421932</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421934</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421937</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421939</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421942</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421945</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421948</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421950</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421953</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421956</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421959</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421962</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421964</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421967</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421969</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421972</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421975</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421977</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421980</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421982</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421985</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421988</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421990</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1436,12 +1636,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COX6A1</t>
+          <t>COX20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 6A1</t>
+          <t>COX20, cytochrome c oxidase assembly factor</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1452,6 +1652,11 @@
       <c r="E41" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421993</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1666,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CPOX</t>
+          <t>COX6A1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>coproporphyrinogen oxidase</t>
+          <t>cytochrome c oxidase subunit 6A1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1477,6 +1682,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421996</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1696,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CTDP1</t>
+          <t>CPOX</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CTD phosphatase subunit 1</t>
+          <t>coproporphyrinogen oxidase</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1502,6 +1712,11 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.421998</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1726,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CYP27A1</t>
+          <t>CTDP1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 27 subfamily A member 1</t>
+          <t>CTD phosphatase subunit 1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1527,6 +1742,11 @@
       <c r="E44" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422001</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1756,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CYP2U1</t>
+          <t>CYP27A1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 2 subfamily U member 1</t>
+          <t>cytochrome P450 family 27 subfamily A member 1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1552,6 +1772,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422003</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1786,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CYP7B1</t>
+          <t>CYP2U1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 7 subfamily B member 1</t>
+          <t>cytochrome P450 family 2 subfamily U member 1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1577,6 +1802,11 @@
       <c r="E46" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422006</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1816,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DARS2</t>
+          <t>CYP7B1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>aspartyl-tRNA synthetase 2, mitochondrial</t>
+          <t>cytochrome P450 family 7 subfamily B member 1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1602,6 +1832,11 @@
       <c r="E47" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422008</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1846,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DCTN1</t>
+          <t>DARS2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>dynactin subunit 1</t>
+          <t>aspartyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1627,6 +1862,11 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422011</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1876,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DDHD1</t>
+          <t>DCTN1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DDHD domain containing 1</t>
+          <t>dynactin subunit 1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1652,6 +1892,11 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422014</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1906,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DEGS1</t>
+          <t>DDHD1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>delta 4-desaturase, sphingolipid 1</t>
+          <t>DDHD domain containing 1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1677,6 +1922,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422016</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1936,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DGUOK</t>
+          <t>DEGS1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>deoxyguanosine kinase</t>
+          <t>delta 4-desaturase, sphingolipid 1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1702,6 +1952,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422019</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1966,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DHH</t>
+          <t>DGUOK</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>desert hedgehog</t>
+          <t>deoxyguanosine kinase</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1727,6 +1982,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422021</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1996,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DNAJB2</t>
+          <t>DHH</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DnaJ heat shock protein family (Hsp40) member B2</t>
+          <t>desert hedgehog</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1752,6 +2012,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422024</t>
         </is>
       </c>
     </row>
@@ -1761,12 +2026,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DNAJC3</t>
+          <t>DNAJB2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DnaJ heat shock protein family (Hsp40) member C3</t>
+          <t>DnaJ heat shock protein family (Hsp40) member B2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1777,6 +2042,11 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422027</t>
         </is>
       </c>
     </row>
@@ -1786,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DNM2</t>
+          <t>DNAJC3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>dynamin 2</t>
+          <t>DnaJ heat shock protein family (Hsp40) member C3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1802,6 +2072,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422030</t>
         </is>
       </c>
     </row>
@@ -1811,12 +2086,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DNMT1</t>
+          <t>DNM2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DNA methyltransferase 1</t>
+          <t>dynamin 2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1827,6 +2102,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422032</t>
         </is>
       </c>
     </row>
@@ -1836,12 +2116,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DRP2</t>
+          <t>DNMT1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>dystrophin related protein 2</t>
+          <t>DNA methyltransferase 1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1852,6 +2132,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422035</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2146,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DST</t>
+          <t>DRP2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>dystonin</t>
+          <t>dystrophin related protein 2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1877,6 +2162,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422037</t>
         </is>
       </c>
     </row>
@@ -1886,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DYNC1H1</t>
+          <t>DST</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>dynein cytoplasmic 1 heavy chain 1</t>
+          <t>dystonin</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1902,6 +2192,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422039</t>
         </is>
       </c>
     </row>
@@ -1911,12 +2206,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EGR2</t>
+          <t>DYNC1H1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>early growth response 2</t>
+          <t>dynein cytoplasmic 1 heavy chain 1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1927,6 +2222,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422042</t>
         </is>
       </c>
     </row>
@@ -1936,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ELP1</t>
+          <t>EGR2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>elongator complex protein 1</t>
+          <t>early growth response 2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1952,6 +2252,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422045</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2266,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ERCC6</t>
+          <t>ELP1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ERCC excision repair 6, chromatin remodeling factor</t>
+          <t>elongator complex protein 1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1977,6 +2282,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422047</t>
         </is>
       </c>
     </row>
@@ -1986,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ERCC8</t>
+          <t>ERCC6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ERCC excision repair 8, CSA ubiquitin ligase complex subunit</t>
+          <t>ERCC excision repair 6, chromatin remodeling factor</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2002,6 +2312,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422050</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2326,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>EXOSC3</t>
+          <t>ERCC8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>exosome component 3</t>
+          <t>ERCC excision repair 8, CSA ubiquitin ligase complex subunit</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2027,6 +2342,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422052</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EXOSC8</t>
+          <t>EXOSC3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>exosome component 8</t>
+          <t>exosome component 3</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2052,6 +2372,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422055</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EXOSC9</t>
+          <t>EXOSC8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>exosome component 9</t>
+          <t>exosome component 8</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2077,6 +2402,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422059</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FAH</t>
+          <t>EXOSC9</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>fumarylacetoacetate hydrolase</t>
+          <t>exosome component 9</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422062</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FAM126A</t>
+          <t>FAH</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>family with sequence similarity 126 member A</t>
+          <t>fumarylacetoacetate hydrolase</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2127,6 +2462,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422064</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FBLN5</t>
+          <t>FAM126A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>fibulin 5</t>
+          <t>family with sequence similarity 126 member A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2152,6 +2492,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422067</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FGD4</t>
+          <t>FBLN5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>FYVE, RhoGEF and PH domain containing 4</t>
+          <t>fibulin 5</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2177,6 +2522,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422070</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2536,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FIG4</t>
+          <t>FGD4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FIG4 phosphoinositide 5-phosphatase</t>
+          <t>FYVE, RhoGEF and PH domain containing 4</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2202,6 +2552,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422072</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FLVCR1</t>
+          <t>FIG4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>feline leukemia virus subgroup C cellular receptor 1</t>
+          <t>FIG4 phosphoinositide 5-phosphatase</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2227,6 +2582,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422075</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FXN</t>
+          <t>FLVCR1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>frataxin</t>
+          <t>feline leukemia virus subgroup C cellular receptor 1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2252,6 +2612,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422077</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GALC</t>
+          <t>FXN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>galactosylceramidase</t>
+          <t>frataxin</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2277,6 +2642,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422080</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GAN</t>
+          <t>GALC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>gigaxonin</t>
+          <t>galactosylceramidase</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2302,6 +2672,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422082</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GARS</t>
+          <t>GAN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>glycyl-tRNA synthetase</t>
+          <t>gigaxonin</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2327,6 +2702,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422085</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GBA2</t>
+          <t>GARS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>glucosylceramidase beta 2</t>
+          <t>glycyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2352,6 +2732,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422087</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GBE1</t>
+          <t>GBA2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1,4-alpha-glucan branching enzyme 1</t>
+          <t>glucosylceramidase beta 2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2377,6 +2762,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422091</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GBF1</t>
+          <t>GBE1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>golgi brefeldin A resistant guanine nucleotide exchange factor 1</t>
+          <t>1,4-alpha-glucan branching enzyme 1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2402,6 +2792,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422095</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GDAP1</t>
+          <t>GBF1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ganglioside induced differentiation associated protein 1</t>
+          <t>golgi brefeldin A resistant guanine nucleotide exchange factor 1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2427,6 +2822,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422097</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GJB1</t>
+          <t>GDAP1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>gap junction protein beta 1</t>
+          <t>ganglioside induced differentiation associated protein 1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2452,6 +2852,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422100</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GJC2</t>
+          <t>GJB1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>gap junction protein gamma 2</t>
+          <t>gap junction protein beta 1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2477,6 +2882,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422102</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GLA</t>
+          <t>GJC2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>galactosidase alpha</t>
+          <t>gap junction protein gamma 2</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2502,6 +2912,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422105</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2926,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GNB4</t>
+          <t>GLA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>G protein subunit beta 4</t>
+          <t>galactosidase alpha</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2527,6 +2942,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422107</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GSN</t>
+          <t>GNB4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>gelsolin</t>
+          <t>G protein subunit beta 4</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2552,6 +2972,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422110</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2986,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HADHA</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>hydroxyacyl-CoA dehydrogenase trifunctional multienzyme complex subunit alpha</t>
+          <t>gelsolin</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2577,6 +3002,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422112</t>
         </is>
       </c>
     </row>
@@ -2586,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>HADHB</t>
+          <t>HADHA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>hydroxyacyl-CoA dehydrogenase trifunctional multienzyme complex subunit beta</t>
+          <t>hydroxyacyl-CoA dehydrogenase trifunctional multienzyme complex subunit alpha</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2602,6 +3032,11 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422115</t>
         </is>
       </c>
     </row>
@@ -2611,12 +3046,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HARS</t>
+          <t>HADHB</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>histidyl-tRNA synthetase</t>
+          <t>hydroxyacyl-CoA dehydrogenase trifunctional multienzyme complex subunit beta</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2627,6 +3062,11 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422117</t>
         </is>
       </c>
     </row>
@@ -2636,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HEXA</t>
+          <t>HARS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>hexosaminidase subunit alpha</t>
+          <t>histidyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2652,6 +3092,11 @@
       <c r="E89" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422120</t>
         </is>
       </c>
     </row>
@@ -2661,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HEXB</t>
+          <t>HEXA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>hexosaminidase subunit beta</t>
+          <t>hexosaminidase subunit alpha</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2677,6 +3122,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422122</t>
         </is>
       </c>
     </row>
@@ -2686,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HINT1</t>
+          <t>HEXB</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>histidine triad nucleotide binding protein 1</t>
+          <t>hexosaminidase subunit beta</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2702,6 +3152,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422125</t>
         </is>
       </c>
     </row>
@@ -2711,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HK1</t>
+          <t>HINT1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>hexokinase 1</t>
+          <t>histidine triad nucleotide binding protein 1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2727,6 +3182,11 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422127</t>
         </is>
       </c>
     </row>
@@ -2736,12 +3196,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HMBS</t>
+          <t>HK1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>hydroxymethylbilane synthase</t>
+          <t>hexokinase 1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2752,6 +3212,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422130</t>
         </is>
       </c>
     </row>
@@ -2761,12 +3226,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HSPB1</t>
+          <t>HMBS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>heat shock protein family B (small) member 1</t>
+          <t>hydroxymethylbilane synthase</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2777,6 +3242,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422134</t>
         </is>
       </c>
     </row>
@@ -2786,12 +3256,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HSPB8</t>
+          <t>HSPB1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>heat shock protein family B (small) member 8</t>
+          <t>heat shock protein family B (small) member 1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2802,6 +3272,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422137</t>
         </is>
       </c>
     </row>
@@ -2811,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IARS2</t>
+          <t>HSPB8</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>isoleucyl-tRNA synthetase 2, mitochondrial</t>
+          <t>heat shock protein family B (small) member 8</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2827,6 +3302,11 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422139</t>
         </is>
       </c>
     </row>
@@ -2836,12 +3316,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>IGHMBP2</t>
+          <t>IARS2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>immunoglobulin mu binding protein 2</t>
+          <t>isoleucyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2852,6 +3332,11 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422142</t>
         </is>
       </c>
     </row>
@@ -2861,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INF2</t>
+          <t>IGHMBP2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>inverted formin, FH2 and WH2 domain containing</t>
+          <t>immunoglobulin mu binding protein 2</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2877,6 +3362,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422145</t>
         </is>
       </c>
     </row>
@@ -2886,12 +3376,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JAG1</t>
+          <t>INF2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>jagged 1</t>
+          <t>inverted formin, FH2 and WH2 domain containing</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2902,6 +3392,11 @@
       <c r="E99" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422147</t>
         </is>
       </c>
     </row>
@@ -2911,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KARS</t>
+          <t>JAG1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>lysyl-tRNA synthetase</t>
+          <t>jagged 1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2927,6 +3422,11 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422150</t>
         </is>
       </c>
     </row>
@@ -2936,12 +3436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KIF1A</t>
+          <t>KARS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>kinesin family member 1A</t>
+          <t>lysyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2952,6 +3452,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422153</t>
         </is>
       </c>
     </row>
@@ -2961,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KIF5A</t>
+          <t>KIF1A</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>kinesin family member 5A</t>
+          <t>kinesin family member 1A</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2977,6 +3482,11 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422155</t>
         </is>
       </c>
     </row>
@@ -2986,12 +3496,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KLC2</t>
+          <t>KIF5A</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>kinesin light chain 2</t>
+          <t>kinesin family member 5A</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3002,6 +3512,11 @@
       <c r="E103" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422158</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LITAF</t>
+          <t>KLC2</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>lipopolysaccharide induced TNF factor</t>
+          <t>kinesin light chain 2</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3027,6 +3542,11 @@
       <c r="E104" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422160</t>
         </is>
       </c>
     </row>
@@ -3036,12 +3556,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LRSAM1</t>
+          <t>LITAF</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>leucine rich repeat and sterile alpha motif containing 1</t>
+          <t>lipopolysaccharide induced TNF factor</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3052,6 +3572,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422163</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LYST</t>
+          <t>LRSAM1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>lysosomal trafficking regulator</t>
+          <t>leucine rich repeat and sterile alpha motif containing 1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3077,6 +3602,11 @@
       <c r="E106" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422166</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3616,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MCM3AP</t>
+          <t>LYST</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>minichromosome maintenance complex component 3 associated protein</t>
+          <t>lysosomal trafficking regulator</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3102,6 +3632,11 @@
       <c r="E107" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422168</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3646,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MFF</t>
+          <t>MCM3AP</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>mitochondrial fission factor</t>
+          <t>minichromosome maintenance complex component 3 associated protein</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3127,6 +3662,11 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422171</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3676,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MFN2</t>
+          <t>MFF</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>mitofusin 2</t>
+          <t>mitochondrial fission factor</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3152,6 +3692,11 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422173</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3706,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MME</t>
+          <t>MFN2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>membrane metalloendopeptidase</t>
+          <t>mitofusin 2</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3177,6 +3722,11 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422178</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3736,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MORC2</t>
+          <t>MME</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MORC family CW-type zinc finger 2</t>
+          <t>membrane metalloendopeptidase</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3202,6 +3752,11 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422181</t>
         </is>
       </c>
     </row>
@@ -3229,6 +3784,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422183</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3236,12 +3796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MPV17</t>
+          <t>MORC2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MPV17, mitochondrial inner membrane protein</t>
+          <t>MORC family CW-type zinc finger 2</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3252,6 +3812,11 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422186</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3826,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MPZ</t>
+          <t>MPV17</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>myelin protein zero</t>
+          <t>MPV17, mitochondrial inner membrane protein</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3277,6 +3842,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422188</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3856,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MTMR2</t>
+          <t>MPZ</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>myotubularin related protein 2</t>
+          <t>myelin protein zero</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3302,6 +3872,11 @@
       <c r="E115" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422191</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3886,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MTTP</t>
+          <t>MTMR2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>microsomal triglyceride transfer protein</t>
+          <t>myotubularin related protein 2</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3327,6 +3902,11 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422193</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3916,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MYH14</t>
+          <t>MTTP</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>myosin heavy chain 14</t>
+          <t>microsomal triglyceride transfer protein</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3352,6 +3932,11 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422196</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3946,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NAGA</t>
+          <t>MYH14</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>alpha-N-acetylgalactosaminidase</t>
+          <t>myosin heavy chain 14</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3377,6 +3962,11 @@
       <c r="E118" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422198</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3976,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NARS</t>
+          <t>NAGA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>asparaginyl-tRNA synthetase</t>
+          <t>alpha-N-acetylgalactosaminidase</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3402,6 +3992,11 @@
       <c r="E119" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422201</t>
         </is>
       </c>
     </row>
@@ -3411,12 +4006,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NDRG1</t>
+          <t>NARS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>N-myc downstream regulated 1</t>
+          <t>asparaginyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3427,6 +4022,11 @@
       <c r="E120" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422203</t>
         </is>
       </c>
     </row>
@@ -3436,12 +4036,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NEFH</t>
+          <t>NDRG1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>neurofilament heavy</t>
+          <t>N-myc downstream regulated 1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3452,6 +4052,11 @@
       <c r="E121" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422206</t>
         </is>
       </c>
     </row>
@@ -3461,12 +4066,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NEFL</t>
+          <t>NEFH</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>neurofilament light</t>
+          <t>neurofilament heavy</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3477,6 +4082,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422209</t>
         </is>
       </c>
     </row>
@@ -3486,12 +4096,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NEMF</t>
+          <t>NEFL</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>nuclear export mediator factor</t>
+          <t>neurofilament light</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3502,6 +4112,11 @@
       <c r="E123" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422211</t>
         </is>
       </c>
     </row>
@@ -3511,12 +4126,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NGF</t>
+          <t>NEMF</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>nerve growth factor</t>
+          <t>nuclear export mediator factor</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3527,6 +4142,11 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422214</t>
         </is>
       </c>
     </row>
@@ -3536,12 +4156,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NGLY1</t>
+          <t>NGF</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>N-glycanase 1</t>
+          <t>nerve growth factor</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3552,6 +4172,11 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422216</t>
         </is>
       </c>
     </row>
@@ -3561,12 +4186,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NTRK1</t>
+          <t>NGLY1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>neurotrophic receptor tyrosine kinase 1</t>
+          <t>N-glycanase 1</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3577,6 +4202,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422219</t>
         </is>
       </c>
     </row>
@@ -3586,12 +4216,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NUDT2</t>
+          <t>NTRK1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>nudix hydrolase 2</t>
+          <t>neurotrophic receptor tyrosine kinase 1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3602,6 +4232,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422221</t>
         </is>
       </c>
     </row>
@@ -3611,12 +4246,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>OPA1</t>
+          <t>NUDT2</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>OPA1, mitochondrial dynamin like GTPase</t>
+          <t>nudix hydrolase 2</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3627,6 +4262,11 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422224</t>
         </is>
       </c>
     </row>
@@ -3636,12 +4276,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PDHA1</t>
+          <t>OPA1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>pyruvate dehydrogenase E1 alpha 1 subunit</t>
+          <t>OPA1, mitochondrial dynamin like GTPase</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3652,6 +4292,11 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422226</t>
         </is>
       </c>
     </row>
@@ -3661,12 +4306,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PDK3</t>
+          <t>PDHA1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>pyruvate dehydrogenase kinase 3</t>
+          <t>pyruvate dehydrogenase E1 alpha 1 subunit</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3677,6 +4322,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422231</t>
         </is>
       </c>
     </row>
@@ -3686,12 +4336,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PDXK</t>
+          <t>PDK3</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>pyridoxal kinase</t>
+          <t>pyruvate dehydrogenase kinase 3</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3702,6 +4352,11 @@
       <c r="E131" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422234</t>
         </is>
       </c>
     </row>
@@ -3711,12 +4366,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PDYN</t>
+          <t>PDXK</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>prodynorphin</t>
+          <t>pyridoxal kinase</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3727,6 +4382,11 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422236</t>
         </is>
       </c>
     </row>
@@ -3736,12 +4396,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PEX10</t>
+          <t>PDYN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 10</t>
+          <t>prodynorphin</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3752,6 +4412,11 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422239</t>
         </is>
       </c>
     </row>
@@ -3761,12 +4426,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PEX7</t>
+          <t>PEX10</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 7</t>
+          <t>peroxisomal biogenesis factor 10</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3777,6 +4442,11 @@
       <c r="E134" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422241</t>
         </is>
       </c>
     </row>
@@ -3786,12 +4456,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PHYH</t>
+          <t>PEX7</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>phytanoyl-CoA 2-hydroxylase</t>
+          <t>peroxisomal biogenesis factor 7</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3802,6 +4472,11 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422244</t>
         </is>
       </c>
     </row>
@@ -3811,12 +4486,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PLA2G6</t>
+          <t>PHYH</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>phospholipase A2 group VI</t>
+          <t>phytanoyl-CoA 2-hydroxylase</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3827,6 +4502,11 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422247</t>
         </is>
       </c>
     </row>
@@ -3836,12 +4516,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PLEKHG5</t>
+          <t>PLA2G6</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>pleckstrin homology and RhoGEF domain containing G5</t>
+          <t>phospholipase A2 group VI</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3852,6 +4532,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422249</t>
         </is>
       </c>
     </row>
@@ -3861,12 +4546,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PLP1</t>
+          <t>PLEKHG5</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>proteolipid protein 1</t>
+          <t>pleckstrin homology and RhoGEF domain containing G5</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3877,6 +4562,11 @@
       <c r="E138" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422252</t>
         </is>
       </c>
     </row>
@@ -3886,12 +4576,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PMM2</t>
+          <t>PLP1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>phosphomannomutase 2</t>
+          <t>proteolipid protein 1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3902,6 +4592,11 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422254</t>
         </is>
       </c>
     </row>
@@ -3911,12 +4606,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PMP2</t>
+          <t>PMM2</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>peripheral myelin protein 2</t>
+          <t>phosphomannomutase 2</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3927,6 +4622,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422257</t>
         </is>
       </c>
     </row>
@@ -3936,12 +4636,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PMP22</t>
+          <t>PMP2</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>peripheral myelin protein 22</t>
+          <t>peripheral myelin protein 2</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3952,6 +4652,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422259</t>
         </is>
       </c>
     </row>
@@ -3961,12 +4666,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PNKP</t>
+          <t>PMP22</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>polynucleotide kinase 3'-phosphatase</t>
+          <t>peripheral myelin protein 22</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3977,6 +4682,11 @@
       <c r="E142" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422262</t>
         </is>
       </c>
     </row>
@@ -3986,12 +4696,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PNPLA6</t>
+          <t>PNKP</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>patatin like phospholipase domain containing 6</t>
+          <t>polynucleotide kinase 3'-phosphatase</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4002,6 +4712,11 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422264</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4726,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>POLG</t>
+          <t>PNPLA6</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DNA polymerase gamma, catalytic subunit</t>
+          <t>patatin like phospholipase domain containing 6</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4027,6 +4742,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422267</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4756,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>POLR3B</t>
+          <t>POLG</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>RNA polymerase III subunit B</t>
+          <t>DNA polymerase gamma, catalytic subunit</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4052,6 +4772,11 @@
       <c r="E145" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422269</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4786,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PPOX</t>
+          <t>POLR3B</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>protoporphyrinogen oxidase</t>
+          <t>RNA polymerase III subunit B</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4077,6 +4802,11 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422272</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4816,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PRDM12</t>
+          <t>PPOX</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PR/SET domain 12</t>
+          <t>protoporphyrinogen oxidase</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4102,6 +4832,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422274</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4846,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PRNP</t>
+          <t>PRDM12</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>prion protein</t>
+          <t>PR/SET domain 12</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4127,6 +4862,11 @@
       <c r="E148" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422277</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4876,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PRPS1</t>
+          <t>PRNP</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>phosphoribosyl pyrophosphate synthetase 1</t>
+          <t>prion protein</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4152,6 +4892,11 @@
       <c r="E149" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422279</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4906,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PRX</t>
+          <t>PRPS1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>periaxin</t>
+          <t>phosphoribosyl pyrophosphate synthetase 1</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4177,6 +4922,11 @@
       <c r="E150" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422282</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4936,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PTRH2</t>
+          <t>PRX</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>peptidyl-tRNA hydrolase 2</t>
+          <t>periaxin</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4202,6 +4952,11 @@
       <c r="E151" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422284</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4966,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RAB7A</t>
+          <t>PTRH2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>RAB7A, member RAS oncogene family</t>
+          <t>peptidyl-tRNA hydrolase 2</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4227,6 +4982,11 @@
       <c r="E152" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422287</t>
         </is>
       </c>
     </row>
@@ -4236,12 +4996,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>REEP1</t>
+          <t>RAB7A</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>receptor accessory protein 1</t>
+          <t>RAB7A, member RAS oncogene family</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4252,6 +5012,11 @@
       <c r="E153" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422289</t>
         </is>
       </c>
     </row>
@@ -4261,12 +5026,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>RETREG1</t>
+          <t>REEP1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>reticulophagy regulator 1</t>
+          <t>receptor accessory protein 1</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4277,6 +5042,11 @@
       <c r="E154" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422292</t>
         </is>
       </c>
     </row>
@@ -4286,12 +5056,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SACS</t>
+          <t>RETREG1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>sacsin molecular chaperone</t>
+          <t>reticulophagy regulator 1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4302,6 +5072,11 @@
       <c r="E155" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422294</t>
         </is>
       </c>
     </row>
@@ -4311,12 +5086,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SBF1</t>
+          <t>SACS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SET binding factor 1</t>
+          <t>sacsin molecular chaperone</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4327,6 +5102,11 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422297</t>
         </is>
       </c>
     </row>
@@ -4354,6 +5134,11 @@
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422299</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4361,12 +5146,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SBF2</t>
+          <t>SBF1</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SET binding factor 2</t>
+          <t>SET binding factor 1</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4377,6 +5162,11 @@
       <c r="E158" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422302</t>
         </is>
       </c>
     </row>
@@ -4386,12 +5176,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SCN10A</t>
+          <t>SBF2</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>sodium voltage-gated channel alpha subunit 10</t>
+          <t>SET binding factor 2</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4402,6 +5192,11 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422304</t>
         </is>
       </c>
     </row>
@@ -4411,12 +5206,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SCN11A</t>
+          <t>SCN10A</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>sodium voltage-gated channel alpha subunit 11</t>
+          <t>sodium voltage-gated channel alpha subunit 10</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4427,6 +5222,11 @@
       <c r="E160" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422307</t>
         </is>
       </c>
     </row>
@@ -4436,12 +5236,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SCN9A</t>
+          <t>SCN11A</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>sodium voltage-gated channel alpha subunit 9</t>
+          <t>sodium voltage-gated channel alpha subunit 11</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4452,6 +5252,11 @@
       <c r="E161" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422309</t>
         </is>
       </c>
     </row>
@@ -4461,12 +5266,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SCYL1</t>
+          <t>SCN9A</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SCY1 like pseudokinase 1</t>
+          <t>sodium voltage-gated channel alpha subunit 9</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4477,6 +5282,11 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422311</t>
         </is>
       </c>
     </row>
@@ -4486,12 +5296,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SEPT9</t>
+          <t>SCYL1</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>septin 9</t>
+          <t>SCY1 like pseudokinase 1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4502,6 +5312,11 @@
       <c r="E163" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422314</t>
         </is>
       </c>
     </row>
@@ -4511,12 +5326,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SETX</t>
+          <t>SEPT9</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>senataxin</t>
+          <t>septin 9</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4527,6 +5342,11 @@
       <c r="E164" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422316</t>
         </is>
       </c>
     </row>
@@ -4536,12 +5356,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SH3TC2</t>
+          <t>SETX</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SH3 domain and tetratricopeptide repeats 2</t>
+          <t>senataxin</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4552,6 +5372,11 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422319</t>
         </is>
       </c>
     </row>
@@ -4561,12 +5386,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SIGMAR1</t>
+          <t>SH3TC2</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>sigma non-opioid intracellular receptor 1</t>
+          <t>SH3 domain and tetratricopeptide repeats 2</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4577,6 +5402,11 @@
       <c r="E166" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422321</t>
         </is>
       </c>
     </row>
@@ -4586,12 +5416,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SLC12A6</t>
+          <t>SIGMAR1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>solute carrier family 12 member 6</t>
+          <t>sigma non-opioid intracellular receptor 1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4602,6 +5432,11 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422324</t>
         </is>
       </c>
     </row>
@@ -4611,12 +5446,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SLC25A46</t>
+          <t>SLC12A6</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 46</t>
+          <t>solute carrier family 12 member 6</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4627,6 +5462,11 @@
       <c r="E168" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422326</t>
         </is>
       </c>
     </row>
@@ -4636,12 +5476,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SLC52A2</t>
+          <t>SLC25A46</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>solute carrier family 52 member 2</t>
+          <t>solute carrier family 25 member 46</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4652,6 +5492,11 @@
       <c r="E169" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422329</t>
         </is>
       </c>
     </row>
@@ -4661,12 +5506,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SLC52A3</t>
+          <t>SLC52A2</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>solute carrier family 52 member 3</t>
+          <t>solute carrier family 52 member 2</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4677,6 +5522,11 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422331</t>
         </is>
       </c>
     </row>
@@ -4686,12 +5536,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SLC5A7</t>
+          <t>SLC52A3</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>solute carrier family 5 member 7</t>
+          <t>solute carrier family 52 member 3</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4702,6 +5552,11 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422334</t>
         </is>
       </c>
     </row>
@@ -4711,12 +5566,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SMN1</t>
+          <t>SLC5A7</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>survival of motor neuron 1, telomeric</t>
+          <t>solute carrier family 5 member 7</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4727,6 +5582,11 @@
       <c r="E172" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422336</t>
         </is>
       </c>
     </row>
@@ -4736,12 +5596,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SNAP29</t>
+          <t>SMN1</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>synaptosome associated protein 29</t>
+          <t>survival of motor neuron 1, telomeric</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4752,6 +5612,11 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422339</t>
         </is>
       </c>
     </row>
@@ -4761,12 +5626,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SORD</t>
+          <t>SNAP29</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>sorbitol dehydrogenase</t>
+          <t>synaptosome associated protein 29</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4777,6 +5642,11 @@
       <c r="E174" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422342</t>
         </is>
       </c>
     </row>
@@ -4786,12 +5656,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SOX10</t>
+          <t>SORD</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SRY-box 10</t>
+          <t>sorbitol dehydrogenase</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4802,6 +5672,11 @@
       <c r="E175" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422346</t>
         </is>
       </c>
     </row>
@@ -4811,12 +5686,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SPAST</t>
+          <t>SOX10</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>spastin</t>
+          <t>SRY-box 10</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4827,6 +5702,11 @@
       <c r="E176" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422348</t>
         </is>
       </c>
     </row>
@@ -4836,12 +5716,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SPG11</t>
+          <t>SPAST</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SPG11, spatacsin vesicle trafficking associated</t>
+          <t>spastin</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4852,6 +5732,11 @@
       <c r="E177" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422351</t>
         </is>
       </c>
     </row>
@@ -4861,12 +5746,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SPTAN1</t>
+          <t>SPG11</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>spectrin alpha, non-erythrocytic 1</t>
+          <t>SPG11, spatacsin vesicle trafficking associated</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4877,6 +5762,11 @@
       <c r="E178" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422353</t>
         </is>
       </c>
     </row>
@@ -4886,12 +5776,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SPTBN4</t>
+          <t>SPTAN1</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>spectrin beta, non-erythrocytic 4</t>
+          <t>spectrin alpha, non-erythrocytic 1</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4902,6 +5792,11 @@
       <c r="E179" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422355</t>
         </is>
       </c>
     </row>
@@ -4911,12 +5806,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SPTLC1</t>
+          <t>SPTBN4</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>serine palmitoyltransferase long chain base subunit 1</t>
+          <t>spectrin beta, non-erythrocytic 4</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4927,6 +5822,11 @@
       <c r="E180" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422358</t>
         </is>
       </c>
     </row>
@@ -4936,12 +5836,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SPTLC2</t>
+          <t>SPTLC1</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>serine palmitoyltransferase long chain base subunit 2</t>
+          <t>serine palmitoyltransferase long chain base subunit 1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4952,6 +5852,11 @@
       <c r="E181" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422360</t>
         </is>
       </c>
     </row>
@@ -4961,12 +5866,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>STUB1</t>
+          <t>SPTLC2</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>STIP1 homology and U-box containing protein 1</t>
+          <t>serine palmitoyltransferase long chain base subunit 2</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4977,6 +5882,11 @@
       <c r="E182" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422363</t>
         </is>
       </c>
     </row>
@@ -4986,12 +5896,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SUCLA2</t>
+          <t>STUB1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>succinate-CoA ligase ADP-forming beta subunit</t>
+          <t>STIP1 homology and U-box containing protein 1</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5002,6 +5912,11 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422365</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5926,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SURF1</t>
+          <t>SUCLA2</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SURF1, cytochrome c oxidase assembly factor</t>
+          <t>succinate-CoA ligase ADP-forming beta subunit</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5027,6 +5942,11 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422367</t>
         </is>
       </c>
     </row>
@@ -5036,12 +5956,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SYT2</t>
+          <t>SURF1</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>synaptotagmin 2</t>
+          <t>SURF1, cytochrome c oxidase assembly factor</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5052,6 +5972,11 @@
       <c r="E185" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422370</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5986,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TDP1</t>
+          <t>SYT2</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>tyrosyl-DNA phosphodiesterase 1</t>
+          <t>synaptotagmin 2</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5077,6 +6002,11 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422372</t>
         </is>
       </c>
     </row>
@@ -5086,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TECPR2</t>
+          <t>TDP1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>tectonin beta-propeller repeat containing 2</t>
+          <t>tyrosyl-DNA phosphodiesterase 1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5102,6 +6032,11 @@
       <c r="E187" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422375</t>
         </is>
       </c>
     </row>
@@ -5111,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TFG</t>
+          <t>TECPR2</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>TRK-fused gene</t>
+          <t>tectonin beta-propeller repeat containing 2</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5127,6 +6062,11 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422377</t>
         </is>
       </c>
     </row>
@@ -5136,12 +6076,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRIM2</t>
+          <t>TFG</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>tripartite motif containing 2</t>
+          <t>TRK-fused gene</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5152,6 +6092,11 @@
       <c r="E189" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422380</t>
         </is>
       </c>
     </row>
@@ -5161,12 +6106,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRIP4</t>
+          <t>TRIM2</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>thyroid hormone receptor interactor 4</t>
+          <t>tripartite motif containing 2</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5177,6 +6122,11 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422383</t>
         </is>
       </c>
     </row>
@@ -5186,12 +6136,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRPV4</t>
+          <t>TRIP4</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>transient receptor potential cation channel subfamily V member 4</t>
+          <t>thyroid hormone receptor interactor 4</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5202,6 +6152,11 @@
       <c r="E191" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422385</t>
         </is>
       </c>
     </row>
@@ -5211,12 +6166,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TTPA</t>
+          <t>TRPV4</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>alpha tocopherol transfer protein</t>
+          <t>transient receptor potential cation channel subfamily V member 4</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5227,6 +6182,11 @@
       <c r="E192" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422388</t>
         </is>
       </c>
     </row>
@@ -5236,12 +6196,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TTR</t>
+          <t>TTPA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>transthyretin</t>
+          <t>alpha tocopherol transfer protein</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5252,6 +6212,11 @@
       <c r="E193" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422390</t>
         </is>
       </c>
     </row>
@@ -5261,12 +6226,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TUBB3</t>
+          <t>TTR</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>tubulin beta 3 class III</t>
+          <t>transthyretin</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5277,6 +6242,11 @@
       <c r="E194" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422393</t>
         </is>
       </c>
     </row>
@@ -5286,12 +6256,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TWNK</t>
+          <t>TUBB3</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>twinkle mtDNA helicase</t>
+          <t>tubulin beta 3 class III</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5302,6 +6272,11 @@
       <c r="E195" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422395</t>
         </is>
       </c>
     </row>
@@ -5311,12 +6286,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TYMP</t>
+          <t>TWNK</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>thymidine phosphorylase</t>
+          <t>twinkle mtDNA helicase</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5327,6 +6302,11 @@
       <c r="E196" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422398</t>
         </is>
       </c>
     </row>
@@ -5336,12 +6316,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>UBA1</t>
+          <t>TYMP</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ubiquitin like modifier activating enzyme 1</t>
+          <t>thymidine phosphorylase</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5352,6 +6332,11 @@
       <c r="E197" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422400</t>
         </is>
       </c>
     </row>
@@ -5361,12 +6346,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>VAPB</t>
+          <t>UBA1</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>VAMP associated protein B and C</t>
+          <t>ubiquitin like modifier activating enzyme 1</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5377,6 +6362,11 @@
       <c r="E198" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422403</t>
         </is>
       </c>
     </row>
@@ -5386,12 +6376,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>VAPB</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>valosin containing protein</t>
+          <t>VAMP associated protein B and C</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5402,6 +6392,11 @@
       <c r="E199" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422405</t>
         </is>
       </c>
     </row>
@@ -5411,12 +6406,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>VRK1</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>vaccinia related kinase 1</t>
+          <t>valosin containing protein</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5427,6 +6422,11 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422407</t>
         </is>
       </c>
     </row>
@@ -5436,12 +6436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>VWA1</t>
+          <t>VRK1</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>von Willebrand factor A domain containing 1</t>
+          <t>vaccinia related kinase 1</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5452,6 +6452,11 @@
       <c r="E201" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422410</t>
         </is>
       </c>
     </row>
@@ -5461,12 +6466,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>WARS</t>
+          <t>VWA1</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>tryptophanyl-tRNA synthetase</t>
+          <t>von Willebrand factor A domain containing 1</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5477,6 +6482,11 @@
       <c r="E202" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422413</t>
         </is>
       </c>
     </row>
@@ -5486,12 +6496,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>WNK1</t>
+          <t>WARS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>WNK lysine deficient protein kinase 1</t>
+          <t>tryptophanyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5502,6 +6512,11 @@
       <c r="E203" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422415</t>
         </is>
       </c>
     </row>
@@ -5511,12 +6526,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>XK</t>
+          <t>WNK1</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>X-linked Kx blood group</t>
+          <t>WNK lysine deficient protein kinase 1</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5527,6 +6542,11 @@
       <c r="E204" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422418</t>
         </is>
       </c>
     </row>
@@ -5536,12 +6556,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>XRCC1</t>
+          <t>XK</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>X-ray repair cross complementing 1</t>
+          <t>X-linked Kx blood group</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5552,6 +6572,11 @@
       <c r="E205" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422420</t>
         </is>
       </c>
     </row>
@@ -5561,12 +6586,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>YARS</t>
+          <t>XRCC1</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>tyrosyl-tRNA synthetase</t>
+          <t>X-ray repair cross complementing 1</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5577,6 +6602,11 @@
       <c r="E206" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422423</t>
         </is>
       </c>
     </row>
@@ -5586,12 +6616,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ZFYVE26</t>
+          <t>YARS</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>zinc finger FYVE-type containing 26</t>
+          <t>tyrosyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5602,6 +6632,11 @@
       <c r="E207" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422425</t>
         </is>
       </c>
     </row>
@@ -5611,22 +6646,27 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ARHGEF10</t>
+          <t>ZFYVE26</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Rho guanine nucleotide exchange factor 10</t>
+          <t>zinc finger FYVE-type containing 26</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422428</t>
         </is>
       </c>
     </row>
@@ -5636,12 +6676,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>C1orf194</t>
+          <t>ARHGEF10</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>chromosome 1 open reading frame 194</t>
+          <t>Rho guanine nucleotide exchange factor 10</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5652,6 +6692,11 @@
       <c r="E209" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422430</t>
         </is>
       </c>
     </row>
@@ -5661,12 +6706,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>CADM3</t>
+          <t>C1orf194</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>cell adhesion molecule 3</t>
+          <t>chromosome 1 open reading frame 194</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5677,6 +6722,11 @@
       <c r="E210" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422433</t>
         </is>
       </c>
     </row>
@@ -5686,12 +6736,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CCT5</t>
+          <t>CADM3</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>chaperonin containing TCP1 subunit 5</t>
+          <t>cell adhesion molecule 3</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5702,6 +6752,11 @@
       <c r="E211" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422435</t>
         </is>
       </c>
     </row>
@@ -5711,12 +6766,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DCAF8</t>
+          <t>CCT5</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DDB1 and CUL4 associated factor 8</t>
+          <t>chaperonin containing TCP1 subunit 5</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5727,6 +6782,11 @@
       <c r="E212" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422438</t>
         </is>
       </c>
     </row>
@@ -5736,12 +6796,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DGAT2</t>
+          <t>DCAF8</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>diacylglycerol O-acyltransferase 2</t>
+          <t>DDB1 and CUL4 associated factor 8</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5752,6 +6812,11 @@
       <c r="E213" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422440</t>
         </is>
       </c>
     </row>
@@ -5761,12 +6826,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DHTKD1</t>
+          <t>DGAT2</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>dehydrogenase E1 and transketolase domain containing 1</t>
+          <t>diacylglycerol O-acyltransferase 2</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5777,6 +6842,11 @@
       <c r="E214" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422442</t>
         </is>
       </c>
     </row>
@@ -5786,12 +6856,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>EMILIN1</t>
+          <t>DHTKD1</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>elastin microfibril interfacer 1</t>
+          <t>dehydrogenase E1 and transketolase domain containing 1</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5802,6 +6872,11 @@
       <c r="E215" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422445</t>
         </is>
       </c>
     </row>
@@ -5811,12 +6886,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FBXO38</t>
+          <t>EMILIN1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>F-box protein 38</t>
+          <t>elastin microfibril interfacer 1</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5827,6 +6902,11 @@
       <c r="E216" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422447</t>
         </is>
       </c>
     </row>
@@ -5836,12 +6916,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FDX2</t>
+          <t>FBXO38</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ferredoxin 2</t>
+          <t>F-box protein 38</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5852,6 +6932,11 @@
       <c r="E217" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422450</t>
         </is>
       </c>
     </row>
@@ -5861,12 +6946,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ITPR3</t>
+          <t>FDX2</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>inositol 1,4,5-trisphosphate receptor type 3</t>
+          <t>ferredoxin 2</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5877,6 +6962,11 @@
       <c r="E218" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422452</t>
         </is>
       </c>
     </row>
@@ -5886,12 +6976,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>KIF1B</t>
+          <t>ITPR3</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>kinesin family member 1B</t>
+          <t>inositol 1,4,5-trisphosphate receptor type 3</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5902,6 +6992,11 @@
       <c r="E219" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422455</t>
         </is>
       </c>
     </row>
@@ -5911,12 +7006,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>LMNA</t>
+          <t>KIF1B</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>lamin A/C</t>
+          <t>kinesin family member 1B</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5927,6 +7022,11 @@
       <c r="E220" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422457</t>
         </is>
       </c>
     </row>
@@ -5936,12 +7036,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>LMNA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>methionyl-tRNA synthetase</t>
+          <t>lamin A/C</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5952,6 +7052,11 @@
       <c r="E221" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422459</t>
         </is>
       </c>
     </row>
@@ -5961,12 +7066,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NAGLU</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>N-acetyl-alpha-glucosaminidase</t>
+          <t>methionyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5977,6 +7082,11 @@
       <c r="E222" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422462</t>
         </is>
       </c>
     </row>
@@ -5986,12 +7096,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PSMC3</t>
+          <t>NAGLU</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>proteasome 26S subunit, ATPase 3</t>
+          <t>N-acetyl-alpha-glucosaminidase</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6002,6 +7112,11 @@
       <c r="E223" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422464</t>
         </is>
       </c>
     </row>
@@ -6011,12 +7126,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>RBM7</t>
+          <t>PSMC3</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>RNA binding motif protein 7</t>
+          <t>proteasome 26S subunit, ATPase 3</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6027,6 +7142,11 @@
       <c r="E224" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422467</t>
         </is>
       </c>
     </row>
@@ -6036,12 +7156,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>SCO2</t>
+          <t>RBM7</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>SCO2, cytochrome c oxidase assembly protein</t>
+          <t>RNA binding motif protein 7</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6052,6 +7172,11 @@
       <c r="E225" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422469</t>
         </is>
       </c>
     </row>
@@ -6061,12 +7186,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>SGPL1</t>
+          <t>SCO2</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>sphingosine-1-phosphate lyase 1</t>
+          <t>SCO2, cytochrome c oxidase assembly protein</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6077,6 +7202,11 @@
       <c r="E226" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422472</t>
         </is>
       </c>
     </row>
@@ -6086,12 +7216,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>UBA5</t>
+          <t>SGPL1</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>ubiquitin like modifier activating enzyme 5</t>
+          <t>sphingosine-1-phosphate lyase 1</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6102,6 +7232,11 @@
       <c r="E227" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422474</t>
         </is>
       </c>
     </row>
@@ -6111,22 +7246,27 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>AMPD2</t>
+          <t>UBA5</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>adenosine monophosphate deaminase 2</t>
+          <t>ubiquitin like modifier activating enzyme 5</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422477</t>
         </is>
       </c>
     </row>
@@ -6136,12 +7276,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>GJB3</t>
+          <t>AMPD2</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>gap junction protein beta 3</t>
+          <t>adenosine monophosphate deaminase 2</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6152,6 +7292,11 @@
       <c r="E229" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422479</t>
         </is>
       </c>
     </row>
@@ -6161,12 +7306,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>HSPB3</t>
+          <t>GJB3</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>heat shock protein family B (small) member 3</t>
+          <t>gap junction protein beta 3</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6177,6 +7322,11 @@
       <c r="E230" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422481</t>
         </is>
       </c>
     </row>
@@ -6186,12 +7336,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>IFRD1</t>
+          <t>HSPB3</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>interferon related developmental regulator 1</t>
+          <t>heat shock protein family B (small) member 3</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6202,6 +7352,11 @@
       <c r="E231" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422484</t>
         </is>
       </c>
     </row>
@@ -6211,12 +7366,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>IQGAP3</t>
+          <t>IFRD1</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>IQ motif containing GTPase activating protein 3</t>
+          <t>interferon related developmental regulator 1</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6227,6 +7382,11 @@
       <c r="E232" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422486</t>
         </is>
       </c>
     </row>
@@ -6236,12 +7396,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>KLHL13</t>
+          <t>IQGAP3</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>kelch like family member 13</t>
+          <t>IQ motif containing GTPase activating protein 3</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6252,6 +7412,11 @@
       <c r="E233" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422489</t>
         </is>
       </c>
     </row>
@@ -6261,12 +7426,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>LAS1L</t>
+          <t>KLHL13</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>LAS1 like, ribosome biogenesis factor</t>
+          <t>kelch like family member 13</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6277,6 +7442,11 @@
       <c r="E234" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422492</t>
         </is>
       </c>
     </row>
@@ -6286,12 +7456,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MED25</t>
+          <t>LAS1L</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>mediator complex subunit 25</t>
+          <t>LAS1 like, ribosome biogenesis factor</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6302,6 +7472,11 @@
       <c r="E235" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422495</t>
         </is>
       </c>
     </row>
@@ -6311,12 +7486,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NIPA1</t>
+          <t>MED25</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>non imprinted in Prader-Willi/Angelman syndrome 1</t>
+          <t>mediator complex subunit 25</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6327,6 +7502,11 @@
       <c r="E236" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422498</t>
         </is>
       </c>
     </row>
@@ -6336,12 +7516,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PEX12</t>
+          <t>NIPA1</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 12</t>
+          <t>non imprinted in Prader-Willi/Angelman syndrome 1</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6352,6 +7532,11 @@
       <c r="E237" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422500</t>
         </is>
       </c>
     </row>
@@ -6361,12 +7546,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SH3BP4</t>
+          <t>PEX12</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>SH3 domain binding protein 4</t>
+          <t>peroxisomal biogenesis factor 12</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6377,6 +7562,11 @@
       <c r="E238" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422503</t>
         </is>
       </c>
     </row>
@@ -6386,12 +7576,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TRPA1</t>
+          <t>SH3BP4</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>transient receptor potential cation channel subfamily A member 1</t>
+          <t>SH3 domain binding protein 4</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6402,6 +7592,11 @@
       <c r="E239" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422505</t>
         </is>
       </c>
     </row>
@@ -6411,22 +7606,57 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
+          <t>TRPA1</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>transient receptor potential cation channel subfamily A member 1</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422508</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
           <t>RFC1</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>replication factor C subunit 1</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
+      <c r="D241" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:01.422510</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Hereditary Neuropathy_CMT_IsolatedAndComplex.xlsx
+++ b/data/panelapp/au/Hereditary Neuropathy_CMT_IsolatedAndComplex.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421880</t>
+          <t>2021-10-05 14:33:58.404155</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421891</t>
+          <t>2021-10-05 14:33:58.404162</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421894</t>
+          <t>2021-10-05 14:33:58.404165</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421897</t>
+          <t>2021-10-05 14:33:58.404168</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421900</t>
+          <t>2021-10-05 14:33:58.404171</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421903</t>
+          <t>2021-10-05 14:33:58.404174</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421906</t>
+          <t>2021-10-05 14:33:58.404176</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421908</t>
+          <t>2021-10-05 14:33:58.404178</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421911</t>
+          <t>2021-10-05 14:33:58.404181</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421914</t>
+          <t>2021-10-05 14:33:58.404184</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421916</t>
+          <t>2021-10-05 14:33:58.404187</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421919</t>
+          <t>2021-10-05 14:33:58.404189</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421921</t>
+          <t>2021-10-05 14:33:58.404192</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421924</t>
+          <t>2021-10-05 14:33:58.404194</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421926</t>
+          <t>2021-10-05 14:33:58.404197</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421929</t>
+          <t>2021-10-05 14:33:58.404199</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421932</t>
+          <t>2021-10-05 14:33:58.404202</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421934</t>
+          <t>2021-10-05 14:33:58.404204</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421937</t>
+          <t>2021-10-05 14:33:58.404207</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421939</t>
+          <t>2021-10-05 14:33:58.404210</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421942</t>
+          <t>2021-10-05 14:33:58.404212</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421945</t>
+          <t>2021-10-05 14:33:58.404215</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421948</t>
+          <t>2021-10-05 14:33:58.404217</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421950</t>
+          <t>2021-10-05 14:33:58.404220</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421953</t>
+          <t>2021-10-05 14:33:58.404222</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421956</t>
+          <t>2021-10-05 14:33:58.404225</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421959</t>
+          <t>2021-10-05 14:33:58.404227</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421962</t>
+          <t>2021-10-05 14:33:58.404230</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421964</t>
+          <t>2021-10-05 14:33:58.404233</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421967</t>
+          <t>2021-10-05 14:33:58.404235</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421969</t>
+          <t>2021-10-05 14:33:58.404238</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421972</t>
+          <t>2021-10-05 14:33:58.404240</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421975</t>
+          <t>2021-10-05 14:33:58.404243</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421977</t>
+          <t>2021-10-05 14:33:58.404246</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421980</t>
+          <t>2021-10-05 14:33:58.404249</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421982</t>
+          <t>2021-10-05 14:33:58.404251</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421985</t>
+          <t>2021-10-05 14:33:58.404254</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421988</t>
+          <t>2021-10-05 14:33:58.404256</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421990</t>
+          <t>2021-10-05 14:33:58.404259</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421993</t>
+          <t>2021-10-05 14:33:58.404262</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421996</t>
+          <t>2021-10-05 14:33:58.404264</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.421998</t>
+          <t>2021-10-05 14:33:58.404267</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422001</t>
+          <t>2021-10-05 14:33:58.404270</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422003</t>
+          <t>2021-10-05 14:33:58.404272</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422006</t>
+          <t>2021-10-05 14:33:58.404275</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422008</t>
+          <t>2021-10-05 14:33:58.404277</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422011</t>
+          <t>2021-10-05 14:33:58.404280</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422014</t>
+          <t>2021-10-05 14:33:58.404282</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422016</t>
+          <t>2021-10-05 14:33:58.404285</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422019</t>
+          <t>2021-10-05 14:33:58.404288</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422021</t>
+          <t>2021-10-05 14:33:58.404290</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422024</t>
+          <t>2021-10-05 14:33:58.404293</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422027</t>
+          <t>2021-10-05 14:33:58.404296</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422030</t>
+          <t>2021-10-05 14:33:58.404299</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422032</t>
+          <t>2021-10-05 14:33:58.404301</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422035</t>
+          <t>2021-10-05 14:33:58.404304</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422037</t>
+          <t>2021-10-05 14:33:58.404306</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422039</t>
+          <t>2021-10-05 14:33:58.404309</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422042</t>
+          <t>2021-10-05 14:33:58.404311</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422045</t>
+          <t>2021-10-05 14:33:58.404314</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422047</t>
+          <t>2021-10-05 14:33:58.404316</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422050</t>
+          <t>2021-10-05 14:33:58.404319</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422052</t>
+          <t>2021-10-05 14:33:58.404321</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422055</t>
+          <t>2021-10-05 14:33:58.404323</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422059</t>
+          <t>2021-10-05 14:33:58.404327</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422062</t>
+          <t>2021-10-05 14:33:58.404330</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422064</t>
+          <t>2021-10-05 14:33:58.404332</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422067</t>
+          <t>2021-10-05 14:33:58.404335</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422070</t>
+          <t>2021-10-05 14:33:58.404337</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422072</t>
+          <t>2021-10-05 14:33:58.404339</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422075</t>
+          <t>2021-10-05 14:33:58.404342</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422077</t>
+          <t>2021-10-05 14:33:58.404345</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422080</t>
+          <t>2021-10-05 14:33:58.404347</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422082</t>
+          <t>2021-10-05 14:33:58.404350</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422085</t>
+          <t>2021-10-05 14:33:58.404352</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422087</t>
+          <t>2021-10-05 14:33:58.404355</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422091</t>
+          <t>2021-10-05 14:33:58.404359</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422095</t>
+          <t>2021-10-05 14:33:58.404362</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422097</t>
+          <t>2021-10-05 14:33:58.404365</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422100</t>
+          <t>2021-10-05 14:33:58.404368</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422102</t>
+          <t>2021-10-05 14:33:58.404370</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422105</t>
+          <t>2021-10-05 14:33:58.404373</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422107</t>
+          <t>2021-10-05 14:33:58.404375</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422110</t>
+          <t>2021-10-05 14:33:58.404378</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422112</t>
+          <t>2021-10-05 14:33:58.404381</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422115</t>
+          <t>2021-10-05 14:33:58.404383</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422117</t>
+          <t>2021-10-05 14:33:58.404386</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422120</t>
+          <t>2021-10-05 14:33:58.404388</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422122</t>
+          <t>2021-10-05 14:33:58.404391</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422125</t>
+          <t>2021-10-05 14:33:58.404394</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422127</t>
+          <t>2021-10-05 14:33:58.404396</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422130</t>
+          <t>2021-10-05 14:33:58.404399</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422134</t>
+          <t>2021-10-05 14:33:58.404403</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422137</t>
+          <t>2021-10-05 14:33:58.404406</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422139</t>
+          <t>2021-10-05 14:33:58.404408</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422142</t>
+          <t>2021-10-05 14:33:58.404411</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422145</t>
+          <t>2021-10-05 14:33:58.404413</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422147</t>
+          <t>2021-10-05 14:33:58.404416</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422150</t>
+          <t>2021-10-05 14:33:58.404418</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422153</t>
+          <t>2021-10-05 14:33:58.404420</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422155</t>
+          <t>2021-10-05 14:33:58.404423</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422158</t>
+          <t>2021-10-05 14:33:58.404426</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422160</t>
+          <t>2021-10-05 14:33:58.404428</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422163</t>
+          <t>2021-10-05 14:33:58.404431</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422166</t>
+          <t>2021-10-05 14:33:58.404434</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422168</t>
+          <t>2021-10-05 14:33:58.404436</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422171</t>
+          <t>2021-10-05 14:33:58.404438</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422173</t>
+          <t>2021-10-05 14:33:58.404441</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422178</t>
+          <t>2021-10-05 14:33:58.404445</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422181</t>
+          <t>2021-10-05 14:33:58.404448</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422183</t>
+          <t>2021-10-05 14:33:58.404450</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422186</t>
+          <t>2021-10-05 14:33:58.404453</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422188</t>
+          <t>2021-10-05 14:33:58.404455</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422191</t>
+          <t>2021-10-05 14:33:58.404458</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422193</t>
+          <t>2021-10-05 14:33:58.404460</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422196</t>
+          <t>2021-10-05 14:33:58.404463</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422198</t>
+          <t>2021-10-05 14:33:58.404465</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422201</t>
+          <t>2021-10-05 14:33:58.404467</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422203</t>
+          <t>2021-10-05 14:33:58.404470</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422206</t>
+          <t>2021-10-05 14:33:58.404472</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422209</t>
+          <t>2021-10-05 14:33:58.404475</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422211</t>
+          <t>2021-10-05 14:33:58.404477</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422214</t>
+          <t>2021-10-05 14:33:58.404480</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422216</t>
+          <t>2021-10-05 14:33:58.404483</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422219</t>
+          <t>2021-10-05 14:33:58.404485</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422221</t>
+          <t>2021-10-05 14:33:58.404488</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422224</t>
+          <t>2021-10-05 14:33:58.404491</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422226</t>
+          <t>2021-10-05 14:33:58.404493</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422231</t>
+          <t>2021-10-05 14:33:58.404497</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422234</t>
+          <t>2021-10-05 14:33:58.404500</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422236</t>
+          <t>2021-10-05 14:33:58.404502</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422239</t>
+          <t>2021-10-05 14:33:58.404505</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422241</t>
+          <t>2021-10-05 14:33:58.404507</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422244</t>
+          <t>2021-10-05 14:33:58.404510</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422247</t>
+          <t>2021-10-05 14:33:58.404512</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422249</t>
+          <t>2021-10-05 14:33:58.404514</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422252</t>
+          <t>2021-10-05 14:33:58.404517</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422254</t>
+          <t>2021-10-05 14:33:58.404519</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422257</t>
+          <t>2021-10-05 14:33:58.404522</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422259</t>
+          <t>2021-10-05 14:33:58.404524</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422262</t>
+          <t>2021-10-05 14:33:58.404527</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422264</t>
+          <t>2021-10-05 14:33:58.404529</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422267</t>
+          <t>2021-10-05 14:33:58.404532</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422269</t>
+          <t>2021-10-05 14:33:58.404534</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422272</t>
+          <t>2021-10-05 14:33:58.404537</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422274</t>
+          <t>2021-10-05 14:33:58.404539</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422277</t>
+          <t>2021-10-05 14:33:58.404541</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422279</t>
+          <t>2021-10-05 14:33:58.404544</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422282</t>
+          <t>2021-10-05 14:33:58.404546</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422284</t>
+          <t>2021-10-05 14:33:58.404549</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422287</t>
+          <t>2021-10-05 14:33:58.404551</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422289</t>
+          <t>2021-10-05 14:33:58.404553</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422292</t>
+          <t>2021-10-05 14:33:58.404556</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422294</t>
+          <t>2021-10-05 14:33:58.404558</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422297</t>
+          <t>2021-10-05 14:33:58.404561</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422299</t>
+          <t>2021-10-05 14:33:58.404563</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422302</t>
+          <t>2021-10-05 14:33:58.404565</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422304</t>
+          <t>2021-10-05 14:33:58.404571</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422307</t>
+          <t>2021-10-05 14:33:58.404574</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422309</t>
+          <t>2021-10-05 14:33:58.404576</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422311</t>
+          <t>2021-10-05 14:33:58.404578</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422314</t>
+          <t>2021-10-05 14:33:58.404581</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422316</t>
+          <t>2021-10-05 14:33:58.404583</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422319</t>
+          <t>2021-10-05 14:33:58.404586</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422321</t>
+          <t>2021-10-05 14:33:58.404588</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422324</t>
+          <t>2021-10-05 14:33:58.404590</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422326</t>
+          <t>2021-10-05 14:33:58.404593</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422329</t>
+          <t>2021-10-05 14:33:58.404595</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422331</t>
+          <t>2021-10-05 14:33:58.404597</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422334</t>
+          <t>2021-10-05 14:33:58.404600</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422336</t>
+          <t>2021-10-05 14:33:58.404602</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422339</t>
+          <t>2021-10-05 14:33:58.404604</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422342</t>
+          <t>2021-10-05 14:33:58.404608</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422346</t>
+          <t>2021-10-05 14:33:58.404611</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422348</t>
+          <t>2021-10-05 14:33:58.404613</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422351</t>
+          <t>2021-10-05 14:33:58.404616</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422353</t>
+          <t>2021-10-05 14:33:58.404618</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422355</t>
+          <t>2021-10-05 14:33:58.404620</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422358</t>
+          <t>2021-10-05 14:33:58.404623</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422360</t>
+          <t>2021-10-05 14:33:58.404625</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422363</t>
+          <t>2021-10-05 14:33:58.404627</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422365</t>
+          <t>2021-10-05 14:33:58.404630</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422367</t>
+          <t>2021-10-05 14:33:58.404632</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422370</t>
+          <t>2021-10-05 14:33:58.404635</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422372</t>
+          <t>2021-10-05 14:33:58.404637</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422375</t>
+          <t>2021-10-05 14:33:58.404640</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422377</t>
+          <t>2021-10-05 14:33:58.404642</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422380</t>
+          <t>2021-10-05 14:33:58.404645</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422383</t>
+          <t>2021-10-05 14:33:58.404647</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422385</t>
+          <t>2021-10-05 14:33:58.404649</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422388</t>
+          <t>2021-10-05 14:33:58.404652</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422390</t>
+          <t>2021-10-05 14:33:58.404654</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422393</t>
+          <t>2021-10-05 14:33:58.404656</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422395</t>
+          <t>2021-10-05 14:33:58.404659</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422398</t>
+          <t>2021-10-05 14:33:58.404661</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422400</t>
+          <t>2021-10-05 14:33:58.404664</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422403</t>
+          <t>2021-10-05 14:33:58.404666</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422405</t>
+          <t>2021-10-05 14:33:58.404669</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422407</t>
+          <t>2021-10-05 14:33:58.404671</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422410</t>
+          <t>2021-10-05 14:33:58.404674</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422413</t>
+          <t>2021-10-05 14:33:58.404676</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422415</t>
+          <t>2021-10-05 14:33:58.404679</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422418</t>
+          <t>2021-10-05 14:33:58.404681</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422420</t>
+          <t>2021-10-05 14:33:58.404684</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422423</t>
+          <t>2021-10-05 14:33:58.404686</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422425</t>
+          <t>2021-10-05 14:33:58.404689</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422428</t>
+          <t>2021-10-05 14:33:58.404691</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422430</t>
+          <t>2021-10-05 14:33:58.404694</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422433</t>
+          <t>2021-10-05 14:33:58.404696</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422435</t>
+          <t>2021-10-05 14:33:58.404701</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422438</t>
+          <t>2021-10-05 14:33:58.404704</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422440</t>
+          <t>2021-10-05 14:33:58.404706</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422442</t>
+          <t>2021-10-05 14:33:58.404709</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422445</t>
+          <t>2021-10-05 14:33:58.404711</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422447</t>
+          <t>2021-10-05 14:33:58.404713</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422450</t>
+          <t>2021-10-05 14:33:58.404716</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422452</t>
+          <t>2021-10-05 14:33:58.404718</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422455</t>
+          <t>2021-10-05 14:33:58.404721</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422457</t>
+          <t>2021-10-05 14:33:58.404723</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422459</t>
+          <t>2021-10-05 14:33:58.404725</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422462</t>
+          <t>2021-10-05 14:33:58.404728</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422464</t>
+          <t>2021-10-05 14:33:58.404730</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422467</t>
+          <t>2021-10-05 14:33:58.404732</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422469</t>
+          <t>2021-10-05 14:33:58.404735</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422472</t>
+          <t>2021-10-05 14:33:58.404737</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422474</t>
+          <t>2021-10-05 14:33:58.404739</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422477</t>
+          <t>2021-10-05 14:33:58.404742</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422479</t>
+          <t>2021-10-05 14:33:58.404744</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422481</t>
+          <t>2021-10-05 14:33:58.404746</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422484</t>
+          <t>2021-10-05 14:33:58.404749</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422486</t>
+          <t>2021-10-05 14:33:58.404751</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422489</t>
+          <t>2021-10-05 14:33:58.404753</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422492</t>
+          <t>2021-10-05 14:33:58.404757</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422495</t>
+          <t>2021-10-05 14:33:58.404760</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422498</t>
+          <t>2021-10-05 14:33:58.404763</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422500</t>
+          <t>2021-10-05 14:33:58.404765</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422503</t>
+          <t>2021-10-05 14:33:58.404768</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422505</t>
+          <t>2021-10-05 14:33:58.404770</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422508</t>
+          <t>2021-10-05 14:33:58.404773</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,91 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:01.422510</t>
+          <t>2021-10-05 14:33:58.404775</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hereditary Neuropathy_CMT_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3120</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T06:47:47.612105Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:58.401137</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/3120/?format=json</t>
         </is>
       </c>
     </row>
